--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D9263-24FA-4F4A-A47B-D59F7B190C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC7D1F-5077-4470-B815-A63A9B76B038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ref="G16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
@@ -1241,7 +1241,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" ref="G17" si="3">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
@@ -1265,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" ref="G18" si="4">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1289,7 +1289,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" ref="G19:G21" si="5">IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
@@ -1313,7 +1313,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="11" t="str">
         <f t="shared" si="5"/>
@@ -1337,7 +1337,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11" t="str">
         <f t="shared" si="5"/>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC7D1F-5077-4470-B815-A63A9B76B038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C21563-09CF-4DC9-9517-8B75DC0F67C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24490" yWindow="870" windowWidth="28730" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -483,15 +483,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -539,6 +530,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -560,9 +560,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -837,7 +837,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -893,7 +893,7 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>26</v>
@@ -902,13 +902,13 @@
         <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>26</v>
@@ -926,13 +926,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="str">
-        <f t="shared" ref="G4:G15" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G4" si="0">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G5:G15" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>26</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>2015</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>26</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F4 F6:F15">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1369,7 +1369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1386,7 +1386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1403,7 +1403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1420,7 +1420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1437,7 +1437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C21563-09CF-4DC9-9517-8B75DC0F67C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5B84E-CF60-4801-B5BA-881B1A20A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24490" yWindow="870" windowWidth="28730" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>2€</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>-</t>
@@ -213,6 +207,27 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -279,6 +294,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -351,28 +368,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -397,13 +392,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,7 +447,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -466,14 +485,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -831,515 +853,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="24.1796875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="str">
-        <f>IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="str">
-        <f t="shared" ref="G4" si="0">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f t="shared" ref="H4" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2010</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11" t="str">
-        <f t="shared" ref="G5:G15" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f t="shared" ref="H5:H15" si="1">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>47</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="str">
-        <f>IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f>IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="str">
-        <f>IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="str">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="G14" s="11" t="str">
+      <c r="H14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="str">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2020</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="str">
-        <f t="shared" ref="G16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" ref="H16" si="2">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2021</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="str">
-        <f t="shared" ref="G17" si="3">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" ref="H17" si="3">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2022</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11" t="str">
-        <f t="shared" ref="G18" si="4">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" ref="H18" si="4">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="str">
-        <f t="shared" ref="G19:G21" si="5">IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" ref="H19:H21" si="5">IF(OR(AND(G19&gt;1,G19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="str">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2023</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11" t="str">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -1348,15 +1402,15 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F4 F6:F15">
+  <conditionalFormatting sqref="G3:G4 G6:G15">
     <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4 F6:F15">
+  <conditionalFormatting sqref="G3:G4 G6:G15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1368,12 +1422,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1385,12 +1439,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1402,12 +1456,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G19">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1419,12 +1473,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="G20">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="G20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1436,12 +1490,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="G21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="G21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1476,13 +1530,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1490,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1501,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1512,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1523,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1534,10 +1588,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1545,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5B84E-CF60-4801-B5BA-881B1A20A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4BA90-2CCE-4C21-886C-13FC94E15FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>100 years of Košice Peace Marathon</t>
   </si>
 </sst>
 </file>
@@ -482,6 +485,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,9 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -504,6 +507,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -552,15 +564,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -582,9 +585,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -853,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -874,17 +877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
@@ -894,8 +897,8 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
@@ -920,7 +923,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1024,7 +1027,7 @@
       <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1101,7 +1104,7 @@
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1328,7 +1331,7 @@
       <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -1395,6 +1398,29 @@
       </c>
       <c r="H21" s="11" t="str">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" ref="H22" si="6">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1406,7 +1432,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4 G6:G15">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1423,7 +1449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1440,7 +1466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G18">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1457,7 +1483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1474,7 +1500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1490,12 +1516,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G21:G22">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G21:G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4BA90-2CCE-4C21-886C-13FC94E15FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A3595-C9A2-4CC4-BA61-63C80E8ECA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -862,7 +862,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1415,9 +1415,11 @@
       <c r="E22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11" t="str">
         <f t="shared" ref="H22" si="6">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A3595-C9A2-4CC4-BA61-63C80E8ECA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23FC7A-30EE-415A-A954-AD90F3151B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>100 years of Košice Peace Marathon</t>
+  </si>
+  <si>
+    <t>100th Anniversary - First International Sports Tournament in Slovakia</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -585,9 +596,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -856,13 +867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1426,6 +1437,31 @@
         <v/>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f t="shared" ref="H23" si="7">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1434,11 +1470,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4 G6:G15">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4 G6:G15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1450,12 +1503,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1467,12 +1520,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G18">
+  <conditionalFormatting sqref="G19">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G18">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1484,12 +1537,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G20">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G20">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1501,12 +1554,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G21:G22">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G21:G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1518,12 +1571,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Commemorative#[2009-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23FC7A-30EE-415A-A954-AD90F3151B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D1B52-EBE8-4843-AE6A-D66934FCE3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -212,9 +215,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>100th Anniversary - First International Sports Tournament in Slovakia</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,6 +493,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,14 +517,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -526,6 +524,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -596,9 +602,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -873,32 +879,30 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="5" width="24.1796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="13" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
@@ -908,16 +912,18 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -935,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
@@ -1036,7 +1042,7 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>6</v>
@@ -1116,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>24</v>
@@ -1343,7 +1349,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>24</v>
@@ -1417,7 +1423,7 @@
         <v>2024</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
@@ -1442,7 +1448,7 @@
         <v>2025</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -1463,9 +1469,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1572,7 +1578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
